--- a/src/main/resources/template/excel/export/stockTakingUNknownDetail.xlsx
+++ b/src/main/resources/template/excel/export/stockTakingUNknownDetail.xlsx
@@ -39,7 +39,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="B3")</t>
+          <t>jx:area(lastCell="B4")</t>
         </r>
       </text>
     </comment>
@@ -546,7 +546,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
